--- a/results/round_2_results.xlsx
+++ b/results/round_2_results.xlsx
@@ -503,7 +503,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>76.9</v>
+        <v>78.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.15</v>
+        <v>4.14</v>
       </c>
       <c r="K2" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" t="n">
-        <v>0.538</v>
+        <v>0.571</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -568,31 +568,31 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>92.3</v>
+        <v>92.9</v>
       </c>
       <c r="J3" t="n">
-        <v>4.23</v>
+        <v>4.21</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" t="n">
-        <v>0.846</v>
+        <v>0.857</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O3" t="s">
         <v>18</v>
@@ -609,7 +609,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -621,34 +621,34 @@
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>69.2</v>
+        <v>71.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>0.385</v>
+        <v>0.429</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
         <v>19</v>
@@ -662,7 +662,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -674,34 +674,34 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>69.2</v>
+        <v>71.4</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>0.385</v>
+        <v>0.429</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P5" t="s">
         <v>19</v>
@@ -715,7 +715,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -736,22 +736,22 @@
         <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>100</v>
+        <v>92.9</v>
       </c>
       <c r="J6" t="n">
-        <v>4.77</v>
+        <v>4.64</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="L6" t="n">
         <v>13</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O6" t="s">
         <v>18</v>
@@ -768,7 +768,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -780,25 +780,25 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
         <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
         <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
         <v>0.52</v>
       </c>
       <c r="L7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -833,28 +833,28 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>84.6</v>
+        <v>85.7</v>
       </c>
       <c r="J8" t="n">
-        <v>4.38</v>
+        <v>4.36</v>
       </c>
       <c r="K8" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8" t="n">
-        <v>0.692</v>
+        <v>0.714</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -886,34 +886,34 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>69.2</v>
+        <v>71.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="K9" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="L9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M9" t="n">
-        <v>0.385</v>
+        <v>0.429</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P9" t="s">
         <v>19</v>
@@ -927,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -939,31 +939,31 @@
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>23.1</v>
+        <v>28.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.23</v>
+        <v>3.29</v>
       </c>
       <c r="K10" t="n">
         <v>0.73</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.538</v>
+        <v>-0.429</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O10" t="s">
         <v>19</v>
@@ -980,7 +980,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -992,28 +992,28 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>84.6</v>
+        <v>85.7</v>
       </c>
       <c r="J11" t="n">
-        <v>4.23</v>
+        <v>4.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="L11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M11" t="n">
-        <v>0.692</v>
+        <v>0.714</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1045,31 +1045,31 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="n">
-        <v>92.3</v>
+        <v>92.9</v>
       </c>
       <c r="J12" t="n">
-        <v>4.69</v>
+        <v>4.64</v>
       </c>
       <c r="K12" t="n">
         <v>0.63</v>
       </c>
       <c r="L12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>0.846</v>
+        <v>0.857</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O12" t="s">
         <v>18</v>
@@ -1086,7 +1086,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>92.3</v>
+        <v>92.9</v>
       </c>
       <c r="J13" t="n">
-        <v>4.85</v>
+        <v>4.79</v>
       </c>
       <c r="K13" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" t="n">
-        <v>0.846</v>
+        <v>0.857</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
@@ -1160,19 +1160,19 @@
         <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>84.6</v>
+        <v>78.6</v>
       </c>
       <c r="J14" t="n">
-        <v>4.31</v>
+        <v>4.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L14" t="n">
         <v>11</v>
       </c>
       <c r="M14" t="n">
-        <v>0.692</v>
+        <v>0.571</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
@@ -1181,10 +1181,10 @@
         <v>18</v>
       </c>
       <c r="P14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1192,7 +1192,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
@@ -1213,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>61.5</v>
+        <v>57.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>3.79</v>
       </c>
       <c r="K15" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="L15" t="n">
         <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>0.231</v>
+        <v>0.143</v>
       </c>
       <c r="N15" t="n">
         <v>2</v>
